--- a/plantillas/consulta/Reporte_Asistencia.xlsx
+++ b/plantillas/consulta/Reporte_Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96056BF6-48A9-49D6-B84A-65903D9837D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5038A6-589D-423C-B13F-7F11ABA8EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DIRECCIÓN EJECUTIVA DE ORGANIZACIÓN ELECTORAL Y GEOESTADÍSTICA</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Nombre de la Unidad Territorial</t>
-  </si>
-  <si>
-    <t>FORMATO 11</t>
   </si>
   <si>
     <t>Personas Observadoras</t>
@@ -119,12 +116,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -142,6 +133,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -161,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,34 +180,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,15 +214,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,6 +229,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -593,167 +564,161 @@
     <col min="11" max="11" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="13" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
